--- a/translation/xlsx/_tsum_024_2.xlsx
+++ b/translation/xlsx/_tsum_024_2.xlsx
@@ -1521,7 +1521,7 @@
     <t>...If somebody showed defiance, she'd break the hostage's head open immediately.</t>
   </si>
   <si>
-    <t>반항적인 태도를 보이면 인질이 된 아니는 이 자리에서 손도끼에 머리가 박살난다.</t>
+    <t>반항적인 태도를 보이면 인질이 된 아이는 이 자리에서 손도끼에 머리가 박살난다.</t>
   </si>
   <si>
     <t xml:space="preserve">반항적인 태도를 보이면 인질은 그 자리에서 머리가 두동강 날 것이다. </t>
@@ -1536,7 +1536,7 @@
     <t>...Of course... Rena had done that before. She'd probably do it again with no hesitation...</t>
   </si>
   <si>
-    <t>얄궂게도, 레나는 어떤 의미로는 그런 행동에 &lt;I&gt;익숙하다&lt;/I&gt;.</t>
+    <t>얄궂게도, 레나는 어떤 의미로는 그런 행동에 &lt;i&gt;익숙하다&lt;/i&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">게다가 얄궂게도, 레나에게는 그 경험이 이미 있기 때문에 더욱 가차 없이 익숙한 손놀림으로 말이다. </t>
@@ -2685,7 +2685,7 @@
     <t>For example... let's say Okamura-kun didn't listen to me.</t>
   </si>
   <si>
-    <t xml:space="preserve">예를 들어, 오키무라 군이 말을 안 들었다고 하자. </t>
+    <t xml:space="preserve">예를 들어, 오카무라 군이 말을 안 들었다고 하자. </t>
   </si>
   <si>
     <t xml:space="preserve">예를 들어, 오키무라 군이 말을 안들었다고 하자. </t>
@@ -2980,7 +2980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3000,6 +3000,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -3035,7 +3036,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3048,6 +3049,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -5259,7 +5263,7 @@
       <c r="C108" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="5" t="s">
         <v>501</v>
       </c>
       <c r="H108" s="4"/>
@@ -5277,7 +5281,7 @@
       <c r="C109" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>506</v>
       </c>
       <c r="H109" s="4"/>
@@ -6762,7 +6766,7 @@
       <c r="C190" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="5" t="s">
         <v>889</v>
       </c>
       <c r="H190" s="4"/>
@@ -7755,7 +7759,7 @@
       <c r="H410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="H411" s="5"/>
+      <c r="H411" s="6"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="H412" s="4"/>
@@ -8139,7 +8143,7 @@
       <c r="H538" s="4"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="H539" s="5"/>
+      <c r="H539" s="6"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="H540" s="4"/>
@@ -8517,7 +8521,7 @@
       <c r="H664" s="4"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="H665" s="5"/>
+      <c r="H665" s="6"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="H666" s="4"/>
